--- a/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/3. 조건부 서식/임직원 실무엑셀 테스트 결과.xlsx
+++ b/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/3. 조건부 서식/임직원 실무엑셀 테스트 결과.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gilbut\Desktop\예제\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\부록_엑셀_이럴땐이렇게\1. 입력수정\3. 조건부 서식\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A9EE88-320B-4C1C-984C-BC2B0BB92976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101FBF4C-EDDE-49AD-9050-D22C85808060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22188" yWindow="3132" windowWidth="21180" windowHeight="16692" xr2:uid="{8303DF42-51FC-427F-9955-8B3346733C75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{8303DF42-51FC-427F-9955-8B3346733C75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,10 @@
     <definedName name="anscount" hidden="1">1</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -51,123 +40,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>직급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 및 함수 활용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피벗테이블 활용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프 활용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강현준</t>
+  </si>
+  <si>
+    <t>과장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권예린</t>
+  </si>
+  <si>
+    <t>대리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김성민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원</t>
+  </si>
+  <si>
+    <t>남준호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박현주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배하린</t>
+  </si>
+  <si>
     <t>손지현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능 및 함수 활용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피벗테이블 활용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래프 활용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강현준</t>
-  </si>
-  <si>
-    <t>과장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신다은</t>
+  </si>
+  <si>
+    <t>안성민</t>
+  </si>
+  <si>
+    <t>오승훈</t>
+  </si>
+  <si>
+    <t>윤서영</t>
+  </si>
+  <si>
+    <t>윤지애</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이채원</t>
+  </si>
+  <si>
+    <t>장윤성</t>
+  </si>
+  <si>
+    <t>장은비</t>
+  </si>
+  <si>
+    <t>차장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전소미</t>
+  </si>
+  <si>
+    <t>정태환</t>
+  </si>
+  <si>
+    <t>조민아</t>
+  </si>
+  <si>
+    <t>최유진</t>
+  </si>
+  <si>
+    <t>부장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황재희</t>
   </si>
   <si>
     <t>권예린</t>
-  </si>
-  <si>
-    <t>대리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김성민</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사원</t>
-  </si>
-  <si>
-    <t>남준호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박현주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배하린</t>
-  </si>
-  <si>
-    <t>손지현</t>
-  </si>
-  <si>
-    <t>신다은</t>
-  </si>
-  <si>
-    <t>안성민</t>
-  </si>
-  <si>
-    <t>오승훈</t>
-  </si>
-  <si>
-    <t>윤서영</t>
-  </si>
-  <si>
-    <t>윤지애</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이채원</t>
-  </si>
-  <si>
-    <t>장윤성</t>
-  </si>
-  <si>
-    <t>장은비</t>
-  </si>
-  <si>
-    <t>차장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전소미</t>
-  </si>
-  <si>
-    <t>정태환</t>
-  </si>
-  <si>
-    <t>조민아</t>
-  </si>
-  <si>
-    <t>최유진</t>
-  </si>
-  <si>
-    <t>부장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황재희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -369,7 +358,15 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -702,19 +699,19 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.09765625" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" customWidth="1"/>
+    <col min="1" max="1" width="2.125" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
     <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="8" width="18.69921875" style="1" customWidth="1"/>
+    <col min="4" max="8" width="18.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
@@ -725,44 +722,44 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="4" spans="2:8" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="4" t="s">
+    </row>
+    <row r="7" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="D7" s="7">
         <v>82</v>
@@ -782,12 +779,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="D8" s="7">
         <v>64</v>
@@ -807,12 +804,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D9" s="7">
         <v>86</v>
@@ -832,12 +829,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="D10" s="7">
         <v>60</v>
@@ -857,12 +854,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="D11" s="7">
         <v>65</v>
@@ -882,12 +879,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="7">
         <v>49</v>
@@ -907,12 +904,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
         <v>54</v>
@@ -932,12 +929,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="7">
         <v>71</v>
@@ -957,12 +954,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="7">
         <v>62</v>
@@ -982,12 +979,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="7">
         <v>54</v>
@@ -1007,12 +1004,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="7">
         <v>67</v>
@@ -1032,12 +1029,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="7">
         <v>64</v>
@@ -1057,12 +1054,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="7">
         <v>62</v>
@@ -1082,12 +1079,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="7">
         <v>98</v>
@@ -1107,12 +1104,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="D21" s="7">
         <v>97</v>
@@ -1132,12 +1129,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="7">
         <v>76</v>
@@ -1157,12 +1154,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="7">
         <v>40</v>
@@ -1182,12 +1179,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="7">
         <v>39</v>
@@ -1207,12 +1204,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D25" s="7">
         <v>91</v>
@@ -1232,12 +1229,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" s="7">
         <v>32</v>
@@ -1257,7 +1254,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -1265,7 +1262,7 @@
       <c r="J37"/>
       <c r="K37"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -1273,7 +1270,7 @@
       <c r="J38"/>
       <c r="K38"/>
     </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -1281,7 +1278,7 @@
       <c r="J39"/>
       <c r="K39"/>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -1289,7 +1286,7 @@
       <c r="J40"/>
       <c r="K40"/>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -1302,6 +1299,11 @@
     <mergeCell ref="B2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B7:H26">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$H$4=$B7</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>